--- a/Carica Massa Elettrone/data/EM.xlsx
+++ b/Carica Massa Elettrone/data/EM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Carica Massa Elettrone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782F377-B67E-4AA9-847F-08495E2EBCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C4800-4520-4EC7-AA26-FF772AA09118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,6 +1338,17 @@
         <v>290</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>1.2</v>
+      </c>
+      <c r="C46">
+        <v>247</v>
+      </c>
+    </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
